--- a/server/static/Excel/nominal_wage_index_by_region.xlsx
+++ b/server/static/Excel/nominal_wage_index_by_region.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1F372-F050-4980-87DA-7423DB82DB4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B82A4F-7C53-447B-ACFE-0FD4D7D80CE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,8 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,23 +430,31 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1145,6 +1156,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
